--- a/backend/taskExcel/taskList_1616052540.xlsx
+++ b/backend/taskExcel/taskList_1616052540.xlsx
@@ -772,19 +772,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
-        <v>the ghost</v>
+        <v>sdbs</v>
       </c>
       <c r="B17" s="1" t="str">
-        <v>sunita</v>
+        <v>savi</v>
       </c>
       <c r="C17" s="1" t="str">
-        <v>dengi</v>
+        <v>den</v>
       </c>
       <c r="D17" s="1" t="str">
-        <v>adgfrsdfg</v>
+        <v>dfbndf</v>
       </c>
       <c r="E17" s="2" t="str">
-        <v>2021-03-18</v>
+        <v>2021-03-26</v>
       </c>
       <c r="F17" s="2" t="str">
         <v>2021-03-17</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="str">
-        <v>ravisjss</v>
+        <v>the ghost</v>
       </c>
       <c r="B18" s="1" t="str">
         <v>sunita</v>
@@ -804,7 +804,7 @@
         <v>dengi</v>
       </c>
       <c r="D18" s="1" t="str">
-        <v>adfgadgzsdvfasd</v>
+        <v>adgfrsdfg</v>
       </c>
       <c r="E18" s="2" t="str">
         <v>2021-03-18</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="str">
-        <v>raviswh</v>
+        <v>ravisjss</v>
       </c>
       <c r="B19" s="1" t="str">
         <v>sunita</v>
@@ -827,7 +827,7 @@
         <v>dengi</v>
       </c>
       <c r="D19" s="1" t="str">
-        <v>sdfasaaaaa1223</v>
+        <v>adfgadgzsdvfasd</v>
       </c>
       <c r="E19" s="2" t="str">
         <v>2021-03-18</v>
@@ -836,21 +836,21 @@
         <v>2021-03-17</v>
       </c>
       <c r="G19" s="1" t="str">
-        <v>YES</v>
+        <v>No</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="str">
-        <v>fndf</v>
+        <v>raviswh</v>
       </c>
       <c r="B20" s="1" t="str">
-        <v>savi</v>
+        <v>sunita</v>
       </c>
       <c r="C20" s="1" t="str">
-        <v>den</v>
+        <v>dengi</v>
       </c>
       <c r="D20" s="1" t="str">
-        <v>fnfgggggmf</v>
+        <v>sdfasaaaaa1223</v>
       </c>
       <c r="E20" s="2" t="str">
         <v>2021-03-18</v>
@@ -859,29 +859,75 @@
         <v>2021-03-17</v>
       </c>
       <c r="G20" s="1" t="str">
-        <v>No</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="str">
+        <v>fndf</v>
+      </c>
+      <c r="B21" s="1" t="str">
+        <v>savi</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <v>den</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <v>fnfgggggmf</v>
+      </c>
+      <c r="E21" s="2" t="str">
+        <v>2021-03-18</v>
+      </c>
+      <c r="F21" s="2" t="str">
+        <v>2021-03-17</v>
+      </c>
+      <c r="G21" s="1" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="str">
+        <v>fnd</v>
+      </c>
+      <c r="B22" s="1" t="str">
+        <v>sunita</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <v>dengi</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <v>fndgn</v>
+      </c>
+      <c r="E22" s="2" t="str">
+        <v>2021-03-25</v>
+      </c>
+      <c r="F22" s="2" t="str">
+        <v>2021-03-17</v>
+      </c>
+      <c r="G22" s="1" t="str">
+        <v>No</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="str">
         <v>hbhh</v>
       </c>
-      <c r="B21" s="1" t="str">
+      <c r="B23" s="1" t="str">
         <v>Swati</v>
       </c>
-      <c r="C21" s="1" t="str">
+      <c r="C23" s="1" t="str">
         <v>bds</v>
       </c>
-      <c r="D21" s="1" t="str">
+      <c r="D23" s="1" t="str">
         <v>kjkkkkjk</v>
       </c>
-      <c r="E21" s="2" t="str">
+      <c r="E23" s="2" t="str">
         <v>2021-03-19</v>
       </c>
-      <c r="F21" s="2" t="str">
-        <v>2021-03-18</v>
-      </c>
-      <c r="G21" s="1" t="str">
+      <c r="F23" s="2" t="str">
+        <v>2021-03-18</v>
+      </c>
+      <c r="G23" s="1" t="str">
         <v>No</v>
       </c>
     </row>
